--- a/similarities/split_global/harmonic_similarity_timestamps_394.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_394.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,370 +484,394 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:00:58.560000', '0:01:02.900000'), ('0:01:08.820000', '0:01:17.920000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.480000', '0:00:22.820000'), ('0:00:57.600000', '0:01:00.720000'), ('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C', 'C/7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:12.318208', '0:00:18.355396')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:17.900000', '0:00:20.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=17.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:23.800000', '0:00:54.300000')]</t>
+          <t>('0:00:38.240000', '0:00:44.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:21.440000')]</t>
+          <t>('0:00:33.680000', '0:00:36')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=38.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=33.68</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:38.640000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
+          <t>('0:00:11.860000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+          <t>('0:00:06.536000', '0:00:11.853000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=233.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:01:58.440000', '0:02:02')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:min', 'B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:10.560000', '0:00:17.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.240000', '0:01:15.880000')]</t>
+          <t>('0:01:33.920000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=10.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=69.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=93.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -857,337 +881,341 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'G', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:31.040000', '0:00:35.040000')]</t>
+          <t>('0:00:01.260000', '0:00:07.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+          <t>('0:00:08.540000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=31.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C', 'F']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb:sus4', 'Eb', 'Ab', 'Db']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:04.928000', '0:00:09.009000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:07.170090', '0:01:11.407732')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=4.928']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=67.17009']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['C/3', 'F', 'C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.352018', '0:00:08.679455')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:01:16.585782', '0:01:19.023877')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['G', 'F', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.980000', '0:00:24.840000')]</t>
+          <t>('0:01:45.047000', '0:01:51.491000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+          <t>('0:00:50.431858', '0:00:56.991495')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=105.047</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=50.431858</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:25.110000', '0:00:28.410000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:56.920000', '0:01:03.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=56.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
